--- a/feature-eng-data/ONS Used Datasets/Level 2 - CO2 Intensity.xlsx
+++ b/feature-eng-data/ONS Used Datasets/Level 2 - CO2 Intensity.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="168" documentId="8_{EA7CC5C4-ADB8-4BC9-9BAA-637CB80BC2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A90926F1-6873-AE46-836C-F7FBEF22B12F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="52" r:id="rId1"/>
@@ -1320,7 +1320,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1489,6 +1489,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1517,10 +1518,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1629,6 +1626,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1930,7 +1931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616D5191-6800-4760-9A1C-C9CC3D0CEDEC}">
   <dimension ref="A1:IV34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2271,23 +2274,23 @@
       <c r="IV16" s="18"/>
     </row>
     <row r="17" spans="1:16" ht="62.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
       <c r="P17" s="63"/>
     </row>
     <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.15">
@@ -2311,64 +2314,64 @@
       <c r="P18" s="63"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
       <c r="P20" s="63"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="61" t="s">
@@ -2431,24 +2434,24 @@
       <c r="P24" s="63"/>
     </row>
     <row r="25" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="64" t="s">
@@ -2462,15 +2465,15 @@
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="25"/>
@@ -2491,16 +2494,16 @@
       <c r="P29" s="25"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
       <c r="I30" s="63"/>
       <c r="J30" s="63"/>
       <c r="K30" s="63"/>
@@ -2628,7 +2631,6 @@
     </row>
     <row r="4" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
-      <c r="B4" s="80"/>
       <c r="D4" s="12"/>
       <c r="E4" s="13">
         <v>1990</v>
@@ -2731,7 +2733,7 @@
       <c r="A5" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="81"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="51"/>
       <c r="D5" s="49" t="s">
         <v>26</v>
@@ -2841,7 +2843,7 @@
       <c r="A6" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="81"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="52"/>
       <c r="D6" s="50" t="s">
         <v>28</v>
@@ -2951,7 +2953,7 @@
       <c r="A7" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="81"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="52"/>
       <c r="D7" s="50" t="s">
         <v>30</v>
@@ -3061,7 +3063,7 @@
       <c r="A8" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="81"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="52"/>
       <c r="D8" s="50" t="s">
         <v>32</v>
@@ -3171,7 +3173,7 @@
       <c r="A9" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="81"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="52"/>
       <c r="D9" s="50" t="s">
         <v>34</v>
@@ -3281,7 +3283,7 @@
       <c r="A10" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="81"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="52"/>
       <c r="D10" s="50" t="s">
         <v>36</v>
@@ -3391,7 +3393,7 @@
       <c r="A11" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="81"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="52"/>
       <c r="D11" s="50" t="s">
         <v>38</v>
@@ -3501,7 +3503,7 @@
       <c r="A12" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="81"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="52"/>
       <c r="D12" s="50" t="s">
         <v>40</v>
@@ -3611,7 +3613,7 @@
       <c r="A13" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="81"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="52"/>
       <c r="D13" s="50" t="s">
         <v>42</v>
@@ -3721,7 +3723,7 @@
       <c r="A14" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="81"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="52"/>
       <c r="D14" s="50" t="s">
         <v>44</v>
@@ -3831,7 +3833,7 @@
       <c r="A15" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="81"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="52"/>
       <c r="D15" s="50" t="s">
         <v>46</v>
@@ -3941,7 +3943,7 @@
       <c r="A16" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="81"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="52"/>
       <c r="D16" s="50" t="s">
         <v>48</v>
@@ -4051,7 +4053,7 @@
       <c r="A17" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="81"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="52"/>
       <c r="D17" s="50" t="s">
         <v>50</v>
@@ -4161,7 +4163,7 @@
       <c r="A18" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="81"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="52"/>
       <c r="D18" s="50" t="s">
         <v>52</v>
@@ -4271,7 +4273,7 @@
       <c r="A19" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="81"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="52"/>
       <c r="D19" s="50" t="s">
         <v>54</v>
@@ -4381,7 +4383,7 @@
       <c r="A20" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="81"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="52"/>
       <c r="D20" s="50" t="s">
         <v>56</v>
@@ -4491,7 +4493,7 @@
       <c r="A21" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="81"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="52"/>
       <c r="D21" s="50" t="s">
         <v>58</v>
@@ -4601,7 +4603,7 @@
       <c r="A22" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="81"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="52"/>
       <c r="D22" s="50" t="s">
         <v>60</v>
@@ -4711,7 +4713,7 @@
       <c r="A23" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="81"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="52"/>
       <c r="D23" s="50" t="s">
         <v>62</v>
@@ -4821,7 +4823,7 @@
       <c r="A24" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="81"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="52"/>
       <c r="D24" s="50" t="s">
         <v>64</v>
@@ -5304,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="30">
-        <f t="shared" ref="B31:B94" si="1">INT(A31)</f>
+        <f t="shared" ref="B31:B93" si="1">INT(A31)</f>
         <v>2</v>
       </c>
       <c r="C31" s="44" t="s">
@@ -12763,7 +12765,7 @@
         <v>50</v>
       </c>
       <c r="B96" s="30">
-        <f t="shared" ref="B95:B140" si="3">INT(A96)</f>
+        <f t="shared" ref="B96:B140" si="3">INT(A96)</f>
         <v>50</v>
       </c>
       <c r="C96" s="44" t="s">
@@ -18113,24 +18115,24 @@
       <c r="AJ143" s="23"/>
     </row>
     <row r="144" spans="1:37" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="77" t="s">
+      <c r="A144" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="B144" s="77"/>
-      <c r="C144" s="77"/>
-      <c r="D144" s="77"/>
-      <c r="E144" s="77"/>
-      <c r="F144" s="77"/>
-      <c r="G144" s="77"/>
-      <c r="H144" s="77"/>
-      <c r="I144" s="77"/>
-      <c r="J144" s="77"/>
-      <c r="K144" s="77"/>
-      <c r="L144" s="77"/>
-      <c r="M144" s="77"/>
-      <c r="N144" s="77"/>
-      <c r="O144" s="77"/>
-      <c r="P144" s="77"/>
+      <c r="B144" s="78"/>
+      <c r="C144" s="78"/>
+      <c r="D144" s="78"/>
+      <c r="E144" s="78"/>
+      <c r="F144" s="78"/>
+      <c r="G144" s="78"/>
+      <c r="H144" s="78"/>
+      <c r="I144" s="78"/>
+      <c r="J144" s="78"/>
+      <c r="K144" s="78"/>
+      <c r="L144" s="78"/>
+      <c r="M144" s="78"/>
+      <c r="N144" s="78"/>
+      <c r="O144" s="78"/>
+      <c r="P144" s="78"/>
       <c r="Q144" s="62"/>
       <c r="R144" s="62"/>
       <c r="S144" s="62"/>
@@ -18524,7 +18526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AJ152"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="S3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AJ30" sqref="AJ30:AJ140"/>
     </sheetView>
   </sheetViews>
@@ -33624,22 +33626,22 @@
       <c r="K143" s="19"/>
     </row>
     <row r="144" spans="1:36" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="78" t="s">
+      <c r="A144" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="B144" s="78"/>
-      <c r="C144" s="78"/>
-      <c r="D144" s="78"/>
-      <c r="E144" s="78"/>
-      <c r="F144" s="78"/>
-      <c r="G144" s="78"/>
-      <c r="H144" s="78"/>
-      <c r="I144" s="78"/>
-      <c r="J144" s="78"/>
-      <c r="K144" s="78"/>
-      <c r="L144" s="78"/>
-      <c r="M144" s="78"/>
-      <c r="N144" s="78"/>
+      <c r="B144" s="79"/>
+      <c r="C144" s="79"/>
+      <c r="D144" s="79"/>
+      <c r="E144" s="79"/>
+      <c r="F144" s="79"/>
+      <c r="G144" s="79"/>
+      <c r="H144" s="79"/>
+      <c r="I144" s="79"/>
+      <c r="J144" s="79"/>
+      <c r="K144" s="79"/>
+      <c r="L144" s="79"/>
+      <c r="M144" s="79"/>
+      <c r="N144" s="79"/>
       <c r="O144" s="62"/>
       <c r="P144" s="62"/>
       <c r="Q144" s="62"/>
@@ -33740,18 +33742,18 @@
     </row>
     <row r="149" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="150" spans="1:32" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="79" t="s">
+      <c r="A150" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B150" s="79"/>
-      <c r="C150" s="79"/>
-      <c r="D150" s="79"/>
-      <c r="E150" s="79"/>
-      <c r="F150" s="79"/>
-      <c r="G150" s="79"/>
-      <c r="H150" s="79"/>
-      <c r="I150" s="79"/>
-      <c r="J150" s="79"/>
+      <c r="B150" s="80"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="80"/>
+      <c r="E150" s="80"/>
+      <c r="F150" s="80"/>
+      <c r="G150" s="80"/>
+      <c r="H150" s="80"/>
+      <c r="I150" s="80"/>
+      <c r="J150" s="80"/>
       <c r="K150" s="18"/>
     </row>
     <row r="151" spans="1:32" s="20" customFormat="1" x14ac:dyDescent="0.15">
@@ -33809,7 +33811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -34102,21 +34104,21 @@
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:33" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
       <c r="N8" s="62"/>
       <c r="O8" s="62"/>
       <c r="P8" s="62"/>
@@ -34148,17 +34150,17 @@
     </row>
     <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:33" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -34176,6 +34178,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="96a98433-1569-4222-be80-afd48d89a184" xsi:nil="true"/>
+    <SectionName xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">Datasets</SectionName>
+    <Comments xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
+    <ReferenceId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">1902</ReferenceId>
+    <Notes xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
+    <TrackerId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">TRCK-1256</TrackerId>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100366FE8C85E70484CA6E47CDF031DEDC1" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="77f004ee60d6d1bfb668fa3c723c44f1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e572c8d-6813-4013-8a4a-be491ac59459" xmlns:ns3="96a98433-1569-4222-be80-afd48d89a184" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0129ea7e54420822124dc9a3c034947" ns2:_="" ns3:_="">
     <xsd:import namespace="1e572c8d-6813-4013-8a4a-be491ac59459"/>
@@ -34420,36 +34451,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44349472-22DC-4CFA-8480-1FB519B0E01E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="96a98433-1569-4222-be80-afd48d89a184" xsi:nil="true"/>
-    <SectionName xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">Datasets</SectionName>
-    <Comments xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
-    <ReferenceId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">1902</ReferenceId>
-    <Notes xmlns="1e572c8d-6813-4013-8a4a-be491ac59459" xsi:nil="true"/>
-    <TrackerId xmlns="1e572c8d-6813-4013-8a4a-be491ac59459">TRCK-1256</TrackerId>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76EB359D-441B-4CF0-86B4-D8125F6FF6D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="1e572c8d-6813-4013-8a4a-be491ac59459"/>
+    <ds:schemaRef ds:uri="96a98433-1569-4222-be80-afd48d89a184"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{439232B4-6CED-40A9-A245-3ED6D0282DF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19DD5F54-6A25-4A40-995E-E5DAAC8CA5C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34466,37 +34501,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{439232B4-6CED-40A9-A245-3ED6D0282DF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76EB359D-441B-4CF0-86B4-D8125F6FF6D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="1e572c8d-6813-4013-8a4a-be491ac59459"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96a98433-1569-4222-be80-afd48d89a184"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44349472-22DC-4CFA-8480-1FB519B0E01E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>